--- a/examples/Wimbledon.xlsx
+++ b/examples/Wimbledon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AEB71E-71B1-434F-AC87-C74E4F0A6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E82E1D-7D1A-4DFE-B4DF-9BB287DF8346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="568" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,7 +2153,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
       <c r="L10" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Collins, Danielle</v>
@@ -2176,11 +2178,11 @@
       </c>
       <c r="Q10" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R10" s="16" t="str">
+        <v>[color=Red][b]Collins, Danielle...........[/b] vs Grabher, Julia.............. ([b]10[/b]-10)[/color]</v>
+      </c>
+      <c r="R10" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="S10" s="16">
         <v>13</v>
@@ -2928,7 +2930,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="12">
+        <v>2</v>
+      </c>
       <c r="L22" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Osorio, Camila</v>
@@ -2951,11 +2955,11 @@
       </c>
       <c r="Q22" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R22" s="16" t="str">
+        <v>[color=Red]Osorio, Camila.............. vs [b]Cocciaretto, Elisabetta.....[/b] (12-[b]8[/b])[/color]</v>
+      </c>
+      <c r="R22" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>38</v>
       </c>
       <c r="S22" s="16">
         <v>37</v>
@@ -3445,7 +3449,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
       <c r="L30" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Stephens, Sloane</v>
@@ -3468,11 +3474,11 @@
       </c>
       <c r="Q30" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R30" s="16" t="str">
+        <v>[color=Red][b]Stephens, Sloane............[/b] vs Peterson, Rebecca........... ([b]8[/b]-12)[/color]</v>
+      </c>
+      <c r="R30" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>53</v>
       </c>
       <c r="S30" s="16">
         <v>53</v>
@@ -3509,7 +3515,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>2</v>
+      </c>
       <c r="L31" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Zhang, Shuai</v>
@@ -3532,11 +3540,11 @@
       </c>
       <c r="Q31" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R31" s="16" t="str">
+        <v>[color=Red]Zhang, Shuai................ vs [b]Vekic, Donna (20)...........[/b] (13-[b]8[/b])[/color]</v>
+      </c>
+      <c r="R31" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>56</v>
       </c>
       <c r="S31" s="16">
         <v>55</v>
@@ -3636,7 +3644,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>1</v>
+      </c>
       <c r="L33" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Kontaveit, Anett</v>
@@ -3659,11 +3669,11 @@
       </c>
       <c r="Q33" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R33" s="16" t="str">
+        <v>[color=Red][b]Kontaveit, Anett............[/b] vs Stefanini, Lucrezia (Q)..... ([b]9[/b]-11)[/color]</v>
+      </c>
+      <c r="R33" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>59</v>
       </c>
       <c r="S33" s="16">
         <v>59</v>
@@ -3895,7 +3905,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="12"/>
+      <c r="K37" s="12">
+        <v>2</v>
+      </c>
       <c r="L37" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Bonaventure, Ysaline</v>
@@ -3918,11 +3930,11 @@
       </c>
       <c r="Q37" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R37" s="16" t="str">
+        <v>[color=Red]Bonaventure, Ysaline........ vs [b]Bai, Zhuoxuan (Q)...........[/b] (7-[b]14[/b])[/color]</v>
+      </c>
+      <c r="R37" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>68</v>
       </c>
       <c r="S37" s="16">
         <v>67</v>
@@ -4078,7 +4090,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="12">
+        <v>2</v>
+      </c>
       <c r="L40" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Pliskova, Karolina</v>
@@ -4101,11 +4115,11 @@
       </c>
       <c r="Q40" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R40" s="16" t="str">
+        <v>[color=Red]Pliskova, Karolina (18)..... vs [b]Stevanovic, Natalija (Q)....[/b] (4-[b]25[/b])[/color]</v>
+      </c>
+      <c r="R40" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>74</v>
       </c>
       <c r="S40" s="16">
         <v>73</v>
@@ -4139,7 +4153,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="12">
+        <v>2</v>
+      </c>
       <c r="L41" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Zhao, Carol</v>
@@ -4162,11 +4178,11 @@
       </c>
       <c r="Q41" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R41" s="16" t="str">
+        <v>[color=Red]Zhao, Carol (Q)............. vs [b]Korpatsch, Tamara (LL)......[/b] (12-[b]8[/b])[/color]</v>
+      </c>
+      <c r="R41" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76</v>
       </c>
       <c r="S41" s="16">
         <v>75</v>
@@ -4264,7 +4280,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K43" s="12"/>
+      <c r="K43" s="12">
+        <v>2</v>
+      </c>
       <c r="L43" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Paolini, Jasmine</v>
@@ -4287,11 +4305,11 @@
       </c>
       <c r="Q43" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R43" s="16" t="str">
+        <v>[color=Red]Paolini, Jasmine............ vs [b]Kvitova, Petra (9)..........[/b] (17-[b]6[/b])[/color]</v>
+      </c>
+      <c r="R43" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="S43" s="16">
         <v>79</v>
@@ -4328,7 +4346,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K44" s="12"/>
+      <c r="K44" s="12">
+        <v>1</v>
+      </c>
       <c r="L44" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Haddad Maia, Beatriz</v>
@@ -4351,11 +4371,11 @@
       </c>
       <c r="Q44" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R44" s="16" t="str">
+        <v>[color=Red][b]Haddad Maia, Beatriz (13)...[/b] vs Putintseva, Yulia........... ([b]6[/b]-16)[/color]</v>
+      </c>
+      <c r="R44" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>81</v>
       </c>
       <c r="S44" s="16">
         <v>81</v>
@@ -4389,7 +4409,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="12"/>
+      <c r="K45" s="12">
+        <v>1</v>
+      </c>
       <c r="L45" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Cristian, Jaqueline</v>
@@ -4412,11 +4434,11 @@
       </c>
       <c r="Q45" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R45" s="16" t="str">
+        <v>[color=Red][b]Cristian, Jaqueline (PR)....[/b] vs Bronzetti, Lucia............ ([b]13[/b]-8)[/color]</v>
+      </c>
+      <c r="R45" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>83</v>
       </c>
       <c r="S45" s="16">
         <v>83</v>
@@ -4450,7 +4472,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K46" s="12"/>
+      <c r="K46" s="12">
+        <v>1</v>
+      </c>
       <c r="L46" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Cirstea, Sorana</v>
@@ -4473,11 +4497,11 @@
       </c>
       <c r="Q46" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R46" s="16" t="str">
+        <v>[color=Red][b]Cirstea, Sorana.............[/b] vs Maria, Tatjana.............. ([b]9[/b]-11)[/color]</v>
+      </c>
+      <c r="R46" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="S46" s="16">
         <v>85</v>
@@ -4511,7 +4535,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" s="12"/>
+      <c r="K47" s="12">
+        <v>2</v>
+      </c>
       <c r="L47" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Minnen, Greet</v>
@@ -4534,11 +4560,11 @@
       </c>
       <c r="Q47" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R47" s="16" t="str">
+        <v>[color=Red]Minnen, Greet (Q)........... vs [b]Ostapenko, Jelena (17)......[/b] (19-[b]5[/b])[/color]</v>
+      </c>
+      <c r="R47" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>88</v>
       </c>
       <c r="S47" s="16">
         <v>87</v>
@@ -4572,7 +4598,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="12"/>
+      <c r="K48" s="12">
+        <v>2</v>
+      </c>
       <c r="L48" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Pera, Bernarda</v>
@@ -4595,11 +4623,11 @@
       </c>
       <c r="Q48" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R48" s="16" t="str">
+        <v>[color=Red]Pera, Bernarda (27)......... vs [b]Tomova, Viktoriya...........[/b] (7-[b]15[/b])[/color]</v>
+      </c>
+      <c r="R48" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>90</v>
       </c>
       <c r="S48" s="16">
         <v>89</v>
@@ -4633,7 +4661,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
       <c r="L49" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Boulter, Katie</v>
@@ -4656,11 +4686,11 @@
       </c>
       <c r="Q49" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R49" s="16" t="str">
+        <v>[color=Red][b]Boulter, Katie (WC).........[/b] vs Saville, Daria (PR)......... ([b]7[/b]-15)[/color]</v>
+      </c>
+      <c r="R49" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>91</v>
       </c>
       <c r="S49" s="16">
         <v>91</v>
@@ -4694,7 +4724,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K50" s="12"/>
+      <c r="K50" s="12">
+        <v>2</v>
+      </c>
       <c r="L50" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Hibino, Nao</v>
@@ -4717,11 +4749,11 @@
       </c>
       <c r="Q50" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R50" s="16" t="str">
+        <v>[color=Red]Hibino, Nao (LL)............ vs [b]Cornet, Alize...............[/b] (12-[b]9[/b])[/color]</v>
+      </c>
+      <c r="R50" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>94</v>
       </c>
       <c r="S50" s="16">
         <v>93</v>
@@ -4824,7 +4856,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="K52" s="12">
+        <v>2</v>
+      </c>
       <c r="L52" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Sakkari, Maria</v>
@@ -4847,11 +4881,11 @@
       </c>
       <c r="Q52" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R52" s="16" t="str">
+        <v>[color=Red]Sakkari, Maria (8).......... vs [b]Kostyuk, Marta..............[/b] (6-[b]17[/b])[/color]</v>
+      </c>
+      <c r="R52" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>98</v>
       </c>
       <c r="S52" s="16">
         <v>97</v>
@@ -4885,7 +4919,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K53" s="12"/>
+      <c r="K53" s="12">
+        <v>2</v>
+      </c>
       <c r="L53" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Riske-Amritraj, Alison</v>
@@ -4908,11 +4944,11 @@
       </c>
       <c r="Q53" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R53" s="16" t="str">
+        <v>[color=Red]Riske-Amritraj, Alison...... vs [b]Badosa, Paula...............[/b] (16-[b]6[/b])[/color]</v>
+      </c>
+      <c r="R53" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="S53" s="16">
         <v>99</v>
@@ -5008,7 +5044,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55" s="12"/>
+      <c r="K55" s="12">
+        <v>2</v>
+      </c>
       <c r="L55" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Kartal, Sonay</v>
@@ -5031,11 +5069,11 @@
       </c>
       <c r="Q55" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R55" s="16" t="str">
+        <v>[color=Red]Kartal, Sonay (WC).......... vs [b]Keys, Madison (25)..........[/b] (25-[b]4[/b])[/color]</v>
+      </c>
+      <c r="R55" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>104</v>
       </c>
       <c r="S55" s="16">
         <v>103</v>
@@ -5070,7 +5108,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K56" s="12"/>
+      <c r="K56" s="12">
+        <v>1</v>
+      </c>
       <c r="L56" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Potapova, Anastasia</v>
@@ -5093,11 +5133,11 @@
       </c>
       <c r="Q56" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R56" s="16" t="str">
+        <v>[color=Red][b]Potapova, Anastasia (22)....[/b] vs Naef, Celine (Q)............ ([b]5[/b]-21)[/color]</v>
+      </c>
+      <c r="R56" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>105</v>
       </c>
       <c r="S56" s="16">
         <v>105</v>
@@ -5132,7 +5172,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="12"/>
+      <c r="K57" s="12">
+        <v>1</v>
+      </c>
       <c r="L57" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Juvan, Kaja</v>
@@ -5155,11 +5197,11 @@
       </c>
       <c r="Q57" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R57" s="16" t="str">
+        <v>[color=Red][b]Juvan, Kaja (Q).............[/b] vs Betova, Margarita (PR)...... ([b]4[/b]-27)[/color]</v>
+      </c>
+      <c r="R57" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>107</v>
       </c>
       <c r="S57" s="16">
         <v>107</v>
@@ -5194,7 +5236,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="12"/>
+      <c r="K58" s="12">
+        <v>1</v>
+      </c>
       <c r="L58" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Andreeva, Mirra</v>
@@ -5217,11 +5261,11 @@
       </c>
       <c r="Q58" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R58" s="16" t="str">
+        <v>[color=Red][b]Andreeva, Mirra (Q).........[/b] vs Wang, Xiyu.................. ([b]11[/b]-9)[/color]</v>
+      </c>
+      <c r="R58" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>109</v>
       </c>
       <c r="S58" s="16">
         <v>109</v>
@@ -5258,7 +5302,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K59" s="12"/>
+      <c r="K59" s="12">
+        <v>2</v>
+      </c>
       <c r="L59" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Watson, Heather</v>
@@ -5281,11 +5327,11 @@
       </c>
       <c r="Q59" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R59" s="16" t="str">
+        <v>[color=Red]Watson, Heather (WC)........ vs [b]Krejcikova, Barbora (10)....[/b] (24-[b]4[/b])[/color]</v>
+      </c>
+      <c r="R59" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>112</v>
       </c>
       <c r="S59" s="16">
         <v>111</v>
@@ -5448,7 +5494,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K62" s="12">
+        <v>1</v>
+      </c>
       <c r="L62" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Brengle, Madison</v>
@@ -5471,11 +5519,11 @@
       </c>
       <c r="Q62" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R62" s="16" t="str">
+        <v>[color=Red][b]Brengle, Madison............[/b] vs Errani, Sara................ ([b]11[/b]-9)[/color]</v>
+      </c>
+      <c r="R62" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>117</v>
       </c>
       <c r="S62" s="16">
         <v>117</v>
@@ -5512,7 +5560,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K63" s="12"/>
+      <c r="K63" s="12">
+        <v>2</v>
+      </c>
       <c r="L63" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Navarro, Emma</v>
@@ -5535,11 +5585,11 @@
       </c>
       <c r="Q63" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R63" s="16" t="str">
+        <v>[color=Red]Navarro, Emma............... vs [b]Alexandrova, Ekaterina (21).[/b] (15-[b]7[/b])[/color]</v>
+      </c>
+      <c r="R63" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>120</v>
       </c>
       <c r="S63" s="16">
         <v>119</v>
@@ -5636,7 +5686,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65" s="12"/>
+      <c r="K65" s="12">
+        <v>2</v>
+      </c>
       <c r="L65" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Wickmayer, Yanina</v>
@@ -5659,11 +5711,11 @@
       </c>
       <c r="Q65" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R65" s="16" t="str">
+        <v>[color=Red]Wickmayer, Yanina (Q)....... vs [b]Blinkova, Anna..............[/b] (13-[b]7[/b])[/color]</v>
+      </c>
+      <c r="R65" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>124</v>
       </c>
       <c r="S65" s="16">
         <v>123</v>
@@ -5698,7 +5750,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K66" s="12"/>
+      <c r="K66" s="12">
+        <v>1</v>
+      </c>
       <c r="L66" s="15" t="str">
         <f t="shared" si="3"/>
         <v>Gracheva, Varvara</v>
@@ -5721,11 +5775,11 @@
       </c>
       <c r="Q66" s="14" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="R66" s="16" t="str">
+        <v>[color=Red][b]Gracheva, Varvara...........[/b] vs Giorgi, Camila.............. ([b]9[/b]-11)[/color]</v>
+      </c>
+      <c r="R66" s="16">
         <f t="shared" si="9"/>
-        <v/>
+        <v>125</v>
       </c>
       <c r="S66" s="16">
         <v>125</v>
@@ -5892,7 +5946,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K70" s="12"/>
+      <c r="K70" s="12">
+        <v>1</v>
+      </c>
       <c r="L70" s="15" t="str">
         <f t="shared" ref="L70:L101" si="11">VLOOKUP(S70,$G$150:$J$277,4,0)</f>
         <v>Swiatek, Iga</v>
@@ -5915,11 +5971,11 @@
       </c>
       <c r="Q70" s="14" t="str">
         <f t="shared" ref="Q70:Q101" si="16">IF(K70&gt;0,IF(K70=1,"[color="&amp;$P$156&amp;"][b]"&amp;VLOOKUP($S70,$G$150:$J$277,3,0)&amp;"[/b] vs "&amp;VLOOKUP($T70,$G$150:$J$277,3,0)&amp;" ([b]"&amp;$N70&amp;"[/b]-"&amp;$O70&amp;")[/color]","[color="&amp;$P$156&amp;"]"&amp;VLOOKUP($S70,$G$150:$J$277,3,0)&amp;" vs [b]"&amp;VLOOKUP($T70,$G$150:$J$277,3,0)&amp;"[/b] ("&amp;$N70&amp;"-[b]"&amp;$O70&amp;"[/b])[/color]"),"")</f>
-        <v/>
-      </c>
-      <c r="R70" s="16" t="str">
+        <v>[color=Red][b]Swiatek, Iga (1)............[/b] vs Sorribes Tormo, Sara (PR)... ([b]3[/b]-34)[/color]</v>
+      </c>
+      <c r="R70" s="16">
         <f t="shared" ref="R70:R101" si="17">IF(K70&gt;0,IF(K70=1,S70,T70),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S70" s="16">
         <f>R4</f>
@@ -6087,25 +6143,25 @@
         <v>0</v>
       </c>
       <c r="K73" s="12"/>
-      <c r="L73" s="15" t="e">
+      <c r="L73" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>Collins, Danielle</v>
       </c>
       <c r="M73" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Bencic, Belinda</v>
       </c>
-      <c r="N73" s="13" t="e">
+      <c r="N73" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O73" s="13" t="e">
+        <v>15</v>
+      </c>
+      <c r="O73" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P73" s="14" t="e">
+        <v>7</v>
+      </c>
+      <c r="P73" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Collins, Danielle........... vs Bencic, Belinda (14)........ (15-7)[/color]</v>
       </c>
       <c r="Q73" s="14" t="str">
         <f t="shared" si="16"/>
@@ -6115,9 +6171,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S73" s="16" t="str">
+      <c r="S73" s="16">
         <f>R10</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="T73" s="16">
         <f>R11</f>
@@ -6152,7 +6208,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K74" s="12"/>
+      <c r="K74" s="12">
+        <v>1</v>
+      </c>
       <c r="L74" s="15" t="str">
         <f t="shared" si="11"/>
         <v>Kasatkina, Daria</v>
@@ -6175,11 +6233,11 @@
       </c>
       <c r="Q74" s="14" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R74" s="16" t="str">
+        <v>[color=Red][b]Kasatkina, Daria (11).......[/b] vs Burrage, Jodie (WC)......... ([b]5[/b]-22)[/color]</v>
+      </c>
+      <c r="R74" s="16">
         <f t="shared" si="17"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="S74" s="16">
         <f>R12</f>
@@ -6483,25 +6541,25 @@
         <v>0</v>
       </c>
       <c r="K79" s="12"/>
-      <c r="L79" s="15" t="e">
+      <c r="L79" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>Cocciaretto, Elisabetta</v>
       </c>
       <c r="M79" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Masarova, Rebeka</v>
       </c>
-      <c r="N79" s="13" t="e">
+      <c r="N79" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O79" s="13" t="e">
+        <v>9</v>
+      </c>
+      <c r="O79" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P79" s="14" t="e">
+        <v>11</v>
+      </c>
+      <c r="P79" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Cocciaretto, Elisabetta..... vs Masarova, Rebeka............ (9-11)[/color]</v>
       </c>
       <c r="Q79" s="14" t="str">
         <f t="shared" si="16"/>
@@ -6511,9 +6569,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S79" s="16" t="str">
+      <c r="S79" s="16">
         <f>R22</f>
-        <v/>
+        <v>38</v>
       </c>
       <c r="T79" s="16">
         <f>R23</f>
@@ -6741,25 +6799,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="12"/>
-      <c r="L83" s="15" t="e">
+      <c r="L83" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M83" s="15" t="e">
+        <v>Stephens, Sloane</v>
+      </c>
+      <c r="M83" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N83" s="13" t="e">
+        <v>Vekic, Donna</v>
+      </c>
+      <c r="N83" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O83" s="13" t="e">
+        <v>13</v>
+      </c>
+      <c r="O83" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P83" s="14" t="e">
+        <v>8</v>
+      </c>
+      <c r="P83" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Stephens, Sloane............ vs Vekic, Donna (20)........... (13-8)[/color]</v>
       </c>
       <c r="Q83" s="14" t="str">
         <f t="shared" si="16"/>
@@ -6769,13 +6827,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S83" s="16" t="str">
+      <c r="S83" s="16">
         <f>R30</f>
-        <v/>
-      </c>
-      <c r="T83" s="16" t="str">
+        <v>53</v>
+      </c>
+      <c r="T83" s="16">
         <f>R31</f>
-        <v/>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6811,21 +6869,21 @@
         <f t="shared" si="11"/>
         <v>Bouzkova, Marie</v>
       </c>
-      <c r="M84" s="15" t="e">
+      <c r="M84" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N84" s="13" t="e">
+        <v>Kontaveit, Anett</v>
+      </c>
+      <c r="N84" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O84" s="13" t="e">
+        <v>8</v>
+      </c>
+      <c r="O84" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P84" s="14" t="e">
+        <v>13</v>
+      </c>
+      <c r="P84" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Bouzkova, Marie (32)........ vs Kontaveit, Anett............ (8-13)[/color]</v>
       </c>
       <c r="Q84" s="14" t="str">
         <f t="shared" si="16"/>
@@ -6839,9 +6897,9 @@
         <f>R32</f>
         <v>57</v>
       </c>
-      <c r="T84" s="16" t="str">
+      <c r="T84" s="16">
         <f>R33</f>
-        <v/>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6941,21 +6999,21 @@
         <f t="shared" si="11"/>
         <v>Jabeur, Ons</v>
       </c>
-      <c r="M86" s="15" t="e">
+      <c r="M86" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N86" s="13" t="e">
+        <v>Bai, Zhuoxuan</v>
+      </c>
+      <c r="N86" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O86" s="13" t="e">
+        <v>3</v>
+      </c>
+      <c r="O86" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P86" s="14" t="e">
+        <v>31</v>
+      </c>
+      <c r="P86" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Jabeur, Ons (6)............. vs Bai, Zhuoxuan (Q)........... (3-31)[/color]</v>
       </c>
       <c r="Q86" s="14" t="str">
         <f t="shared" si="16"/>
@@ -6969,9 +7027,9 @@
         <f>R36</f>
         <v>65</v>
       </c>
-      <c r="T86" s="16" t="str">
+      <c r="T86" s="16">
         <f>R37</f>
-        <v/>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7065,25 +7123,25 @@
         <v>0</v>
       </c>
       <c r="K88" s="12"/>
-      <c r="L88" s="15" t="e">
+      <c r="L88" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" s="15" t="e">
+        <v>Stevanovic, Natalija</v>
+      </c>
+      <c r="M88" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N88" s="13" t="e">
+        <v>Korpatsch, Tamara</v>
+      </c>
+      <c r="N88" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O88" s="13" t="e">
+        <v>14</v>
+      </c>
+      <c r="O88" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P88" s="14" t="e">
+        <v>7</v>
+      </c>
+      <c r="P88" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Stevanovic, Natalija (Q).... vs Korpatsch, Tamara (LL)...... (14-7)[/color]</v>
       </c>
       <c r="Q88" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7093,13 +7151,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S88" s="16" t="str">
+      <c r="S88" s="16">
         <f>R40</f>
-        <v/>
-      </c>
-      <c r="T88" s="16" t="str">
+        <v>74</v>
+      </c>
+      <c r="T88" s="16">
         <f>R41</f>
-        <v/>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7133,9 +7191,9 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="M89" s="15" t="e">
+      <c r="M89" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>Kvitova, Petra</v>
       </c>
       <c r="N89" s="13" t="e">
         <f t="shared" si="13"/>
@@ -7161,9 +7219,9 @@
         <f>R42</f>
         <v/>
       </c>
-      <c r="T89" s="16" t="str">
+      <c r="T89" s="16">
         <f>R43</f>
-        <v/>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7195,25 +7253,25 @@
         <v>0</v>
       </c>
       <c r="K90" s="12"/>
-      <c r="L90" s="15" t="e">
+      <c r="L90" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" s="15" t="e">
+        <v>Haddad Maia, Beatriz</v>
+      </c>
+      <c r="M90" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N90" s="13" t="e">
+        <v>Cristian, Jaqueline</v>
+      </c>
+      <c r="N90" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O90" s="13" t="e">
+        <v>5</v>
+      </c>
+      <c r="O90" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P90" s="14" t="e">
+        <v>22</v>
+      </c>
+      <c r="P90" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Haddad Maia, Beatriz (13)... vs Cristian, Jaqueline (PR).... (5-22)[/color]</v>
       </c>
       <c r="Q90" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7223,13 +7281,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S90" s="16" t="str">
+      <c r="S90" s="16">
         <f>R44</f>
-        <v/>
-      </c>
-      <c r="T90" s="16" t="str">
+        <v>81</v>
+      </c>
+      <c r="T90" s="16">
         <f>R45</f>
-        <v/>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7261,25 +7319,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="12"/>
-      <c r="L91" s="15" t="e">
+      <c r="L91" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" s="15" t="e">
+        <v>Cirstea, Sorana</v>
+      </c>
+      <c r="M91" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N91" s="13" t="e">
+        <v>Ostapenko, Jelena</v>
+      </c>
+      <c r="N91" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O91" s="13" t="e">
+        <v>13</v>
+      </c>
+      <c r="O91" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P91" s="14" t="e">
+        <v>8</v>
+      </c>
+      <c r="P91" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Cirstea, Sorana............. vs Ostapenko, Jelena (17)...... (13-8)[/color]</v>
       </c>
       <c r="Q91" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7289,13 +7347,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S91" s="16" t="str">
+      <c r="S91" s="16">
         <f>R46</f>
-        <v/>
-      </c>
-      <c r="T91" s="16" t="str">
+        <v>85</v>
+      </c>
+      <c r="T91" s="16">
         <f>R47</f>
-        <v/>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7327,25 +7385,25 @@
         <v>0</v>
       </c>
       <c r="K92" s="12"/>
-      <c r="L92" s="15" t="e">
+      <c r="L92" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M92" s="15" t="e">
+        <v>Tomova, Viktoriya</v>
+      </c>
+      <c r="M92" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N92" s="13" t="e">
+        <v>Boulter, Katie</v>
+      </c>
+      <c r="N92" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O92" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="O92" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P92" s="14" t="e">
+        <v>10</v>
+      </c>
+      <c r="P92" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Tomova, Viktoriya........... vs Boulter, Katie (WC)......... (10-10)[/color]</v>
       </c>
       <c r="Q92" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7355,13 +7413,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S92" s="16" t="str">
+      <c r="S92" s="16">
         <f>R48</f>
-        <v/>
-      </c>
-      <c r="T92" s="16" t="str">
+        <v>90</v>
+      </c>
+      <c r="T92" s="16">
         <f>R49</f>
-        <v/>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7391,25 +7449,25 @@
         <v>0</v>
       </c>
       <c r="K93" s="12"/>
-      <c r="L93" s="15" t="e">
+      <c r="L93" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>Cornet, Alize</v>
       </c>
       <c r="M93" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Rybakina, Elena</v>
       </c>
-      <c r="N93" s="13" t="e">
+      <c r="N93" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O93" s="13" t="e">
+        <v>25</v>
+      </c>
+      <c r="O93" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P93" s="14" t="e">
+        <v>4</v>
+      </c>
+      <c r="P93" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Cornet, Alize............... vs Rybakina, Elena (3)......... (25-4)[/color]</v>
       </c>
       <c r="Q93" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7419,9 +7477,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S93" s="16" t="str">
+      <c r="S93" s="16">
         <f>R50</f>
-        <v/>
+        <v>94</v>
       </c>
       <c r="T93" s="16">
         <f>R51</f>
@@ -7457,25 +7515,25 @@
         <v>0</v>
       </c>
       <c r="K94" s="12"/>
-      <c r="L94" s="15" t="e">
+      <c r="L94" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" s="15" t="e">
+        <v>Kostyuk, Marta</v>
+      </c>
+      <c r="M94" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N94" s="13" t="e">
+        <v>Badosa, Paula</v>
+      </c>
+      <c r="N94" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O94" s="13" t="e">
+        <v>10</v>
+      </c>
+      <c r="O94" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P94" s="14" t="e">
+        <v>10</v>
+      </c>
+      <c r="P94" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Kostyuk, Marta.............. vs Badosa, Paula............... (10-10)[/color]</v>
       </c>
       <c r="Q94" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7485,13 +7543,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S94" s="16" t="str">
+      <c r="S94" s="16">
         <f>R52</f>
-        <v/>
-      </c>
-      <c r="T94" s="16" t="str">
+        <v>98</v>
+      </c>
+      <c r="T94" s="16">
         <f>R53</f>
-        <v/>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7527,9 +7585,9 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="M95" s="15" t="e">
+      <c r="M95" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>Keys, Madison</v>
       </c>
       <c r="N95" s="13" t="e">
         <f t="shared" si="13"/>
@@ -7555,9 +7613,9 @@
         <f>R54</f>
         <v/>
       </c>
-      <c r="T95" s="16" t="str">
+      <c r="T95" s="16">
         <f>R55</f>
-        <v/>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7589,25 +7647,25 @@
         <v>0</v>
       </c>
       <c r="K96" s="12"/>
-      <c r="L96" s="15" t="e">
+      <c r="L96" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M96" s="15" t="e">
+        <v>Potapova, Anastasia</v>
+      </c>
+      <c r="M96" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N96" s="13" t="e">
+        <v>Juvan, Kaja</v>
+      </c>
+      <c r="N96" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O96" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="O96" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P96" s="14" t="e">
+        <v>25</v>
+      </c>
+      <c r="P96" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Potapova, Anastasia (22).... vs Juvan, Kaja (Q)............. (4-25)[/color]</v>
       </c>
       <c r="Q96" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7617,13 +7675,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S96" s="16" t="str">
+      <c r="S96" s="16">
         <f>R56</f>
-        <v/>
-      </c>
-      <c r="T96" s="16" t="str">
+        <v>105</v>
+      </c>
+      <c r="T96" s="16">
         <f>R57</f>
-        <v/>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7653,25 +7711,25 @@
         <v>0</v>
       </c>
       <c r="K97" s="12"/>
-      <c r="L97" s="15" t="e">
+      <c r="L97" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M97" s="15" t="e">
+        <v>Andreeva, Mirra</v>
+      </c>
+      <c r="M97" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N97" s="13" t="e">
+        <v>Krejcikova, Barbora</v>
+      </c>
+      <c r="N97" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O97" s="13" t="e">
+        <v>21</v>
+      </c>
+      <c r="O97" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P97" s="14" t="e">
+        <v>5</v>
+      </c>
+      <c r="P97" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Andreeva, Mirra (Q)......... vs Krejcikova, Barbora (10).... (21-5)[/color]</v>
       </c>
       <c r="Q97" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7681,13 +7739,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S97" s="16" t="str">
+      <c r="S97" s="16">
         <f>R58</f>
-        <v/>
-      </c>
-      <c r="T97" s="16" t="str">
+        <v>109</v>
+      </c>
+      <c r="T97" s="16">
         <f>R59</f>
-        <v/>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7783,25 +7841,25 @@
         <v>0</v>
       </c>
       <c r="K99" s="12"/>
-      <c r="L99" s="15" t="e">
+      <c r="L99" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M99" s="15" t="e">
+        <v>Brengle, Madison</v>
+      </c>
+      <c r="M99" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N99" s="13" t="e">
+        <v>Alexandrova, Ekaterina</v>
+      </c>
+      <c r="N99" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O99" s="13" t="e">
+        <v>18</v>
+      </c>
+      <c r="O99" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P99" s="14" t="e">
+        <v>6</v>
+      </c>
+      <c r="P99" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Brengle, Madison............ vs Alexandrova, Ekaterina (21). (18-6)[/color]</v>
       </c>
       <c r="Q99" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7811,13 +7869,13 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S99" s="16" t="str">
+      <c r="S99" s="16">
         <f>R62</f>
-        <v/>
-      </c>
-      <c r="T99" s="16" t="str">
+        <v>117</v>
+      </c>
+      <c r="T99" s="16">
         <f>R63</f>
-        <v/>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7853,9 +7911,9 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="M100" s="15" t="e">
+      <c r="M100" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>Blinkova, Anna</v>
       </c>
       <c r="N100" s="13" t="e">
         <f t="shared" si="13"/>
@@ -7881,9 +7939,9 @@
         <f>R64</f>
         <v/>
       </c>
-      <c r="T100" s="16" t="str">
+      <c r="T100" s="16">
         <f>R65</f>
-        <v/>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7913,25 +7971,25 @@
         <v>0</v>
       </c>
       <c r="K101" s="12"/>
-      <c r="L101" s="15" t="e">
+      <c r="L101" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>Gracheva, Varvara</v>
       </c>
       <c r="M101" s="15" t="str">
         <f t="shared" si="12"/>
         <v>Sabalenka, Aryna</v>
       </c>
-      <c r="N101" s="13" t="e">
+      <c r="N101" s="13">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O101" s="13" t="e">
+        <v>27</v>
+      </c>
+      <c r="O101" s="13">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P101" s="14" t="e">
+        <v>4</v>
+      </c>
+      <c r="P101" s="14" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
+        <v>[color=Black]Gracheva, Varvara........... vs Sabalenka, Aryna (2)........ (27-4)[/color]</v>
       </c>
       <c r="Q101" s="14" t="str">
         <f t="shared" si="16"/>
@@ -7941,9 +7999,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="S101" s="16" t="str">
+      <c r="S101" s="16">
         <f>R66</f>
-        <v/>
+        <v>125</v>
       </c>
       <c r="T101" s="16">
         <f>R67</f>
@@ -8038,9 +8096,9 @@
         <v>0</v>
       </c>
       <c r="K104" s="12"/>
-      <c r="L104" s="15" t="e">
+      <c r="L104" s="15" t="str">
         <f t="shared" ref="L104:L119" si="18">VLOOKUP(S104,$G$150:$J$277,4,0)</f>
-        <v>#N/A</v>
+        <v>Swiatek, Iga</v>
       </c>
       <c r="M104" s="15" t="e">
         <f t="shared" ref="M104:M119" si="19">VLOOKUP(T104,$G$150:$J$277,4,0)</f>
@@ -8066,9 +8124,9 @@
         <f t="shared" ref="R104:R119" si="24">IF(K104&gt;0,IF(K104=1,S104,T104),"")</f>
         <v/>
       </c>
-      <c r="S104" s="16" t="str">
+      <c r="S104" s="16">
         <f>R70</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="T104" s="16" t="str">
         <f>R71</f>
@@ -8168,9 +8226,9 @@
         <v>0</v>
       </c>
       <c r="K106" s="12"/>
-      <c r="L106" s="15" t="e">
+      <c r="L106" s="15" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>Kasatkina, Daria</v>
       </c>
       <c r="M106" s="15" t="e">
         <f t="shared" si="19"/>
@@ -8196,9 +8254,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="S106" s="16" t="str">
+      <c r="S106" s="16">
         <f>R74</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="T106" s="16" t="str">
         <f>R75</f>
@@ -15242,7 +15300,7 @@
       </c>
       <c r="C8">
         <f>IF(ScoPo!K10&gt;0,IF(ScoPo!K10=1,ScoPo!N10,-ScoPo!O10),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -15410,7 +15468,7 @@
       </c>
       <c r="C20">
         <f>IF(ScoPo!K22&gt;0,IF(ScoPo!K22=1,ScoPo!N22,-ScoPo!O22),0)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -15522,7 +15580,7 @@
       </c>
       <c r="C28">
         <f>IF(ScoPo!K30&gt;0,IF(ScoPo!K30=1,ScoPo!N30,-ScoPo!O30),0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -15536,7 +15594,7 @@
       </c>
       <c r="C29">
         <f>IF(ScoPo!K31&gt;0,IF(ScoPo!K31=1,ScoPo!N31,-ScoPo!O31),0)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -15564,7 +15622,7 @@
       </c>
       <c r="C31">
         <f>IF(ScoPo!K33&gt;0,IF(ScoPo!K33=1,ScoPo!N33,-ScoPo!O33),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -15620,7 +15678,7 @@
       </c>
       <c r="C35">
         <f>IF(ScoPo!K37&gt;0,IF(ScoPo!K37=1,ScoPo!N37,-ScoPo!O37),0)</f>
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -15662,7 +15720,7 @@
       </c>
       <c r="C38">
         <f>IF(ScoPo!K40&gt;0,IF(ScoPo!K40=1,ScoPo!N40,-ScoPo!O40),0)</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -15676,7 +15734,7 @@
       </c>
       <c r="C39">
         <f>IF(ScoPo!K41&gt;0,IF(ScoPo!K41=1,ScoPo!N41,-ScoPo!O41),0)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -15704,7 +15762,7 @@
       </c>
       <c r="C41">
         <f>IF(ScoPo!K43&gt;0,IF(ScoPo!K43=1,ScoPo!N43,-ScoPo!O43),0)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -15718,7 +15776,7 @@
       </c>
       <c r="C42">
         <f>IF(ScoPo!K44&gt;0,IF(ScoPo!K44=1,ScoPo!N44,-ScoPo!O44),0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -15732,7 +15790,7 @@
       </c>
       <c r="C43">
         <f>IF(ScoPo!K45&gt;0,IF(ScoPo!K45=1,ScoPo!N45,-ScoPo!O45),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -15746,7 +15804,7 @@
       </c>
       <c r="C44">
         <f>IF(ScoPo!K46&gt;0,IF(ScoPo!K46=1,ScoPo!N46,-ScoPo!O46),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -15760,7 +15818,7 @@
       </c>
       <c r="C45">
         <f>IF(ScoPo!K47&gt;0,IF(ScoPo!K47=1,ScoPo!N47,-ScoPo!O47),0)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -15774,7 +15832,7 @@
       </c>
       <c r="C46">
         <f>IF(ScoPo!K48&gt;0,IF(ScoPo!K48=1,ScoPo!N48,-ScoPo!O48),0)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -15788,7 +15846,7 @@
       </c>
       <c r="C47">
         <f>IF(ScoPo!K49&gt;0,IF(ScoPo!K49=1,ScoPo!N49,-ScoPo!O49),0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -15802,7 +15860,7 @@
       </c>
       <c r="C48">
         <f>IF(ScoPo!K50&gt;0,IF(ScoPo!K50=1,ScoPo!N50,-ScoPo!O50),0)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -15830,7 +15888,7 @@
       </c>
       <c r="C50">
         <f>IF(ScoPo!K52&gt;0,IF(ScoPo!K52=1,ScoPo!N52,-ScoPo!O52),0)</f>
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -15844,7 +15902,7 @@
       </c>
       <c r="C51">
         <f>IF(ScoPo!K53&gt;0,IF(ScoPo!K53=1,ScoPo!N53,-ScoPo!O53),0)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -15872,7 +15930,7 @@
       </c>
       <c r="C53">
         <f>IF(ScoPo!K55&gt;0,IF(ScoPo!K55=1,ScoPo!N55,-ScoPo!O55),0)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -15886,7 +15944,7 @@
       </c>
       <c r="C54">
         <f>IF(ScoPo!K56&gt;0,IF(ScoPo!K56=1,ScoPo!N56,-ScoPo!O56),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -15900,7 +15958,7 @@
       </c>
       <c r="C55">
         <f>IF(ScoPo!K57&gt;0,IF(ScoPo!K57=1,ScoPo!N57,-ScoPo!O57),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -15914,7 +15972,7 @@
       </c>
       <c r="C56">
         <f>IF(ScoPo!K58&gt;0,IF(ScoPo!K58=1,ScoPo!N58,-ScoPo!O58),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -15928,7 +15986,7 @@
       </c>
       <c r="C57">
         <f>IF(ScoPo!K59&gt;0,IF(ScoPo!K59=1,ScoPo!N59,-ScoPo!O59),0)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -15970,7 +16028,7 @@
       </c>
       <c r="C60">
         <f>IF(ScoPo!K62&gt;0,IF(ScoPo!K62=1,ScoPo!N62,-ScoPo!O62),0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -15984,7 +16042,7 @@
       </c>
       <c r="C61">
         <f>IF(ScoPo!K63&gt;0,IF(ScoPo!K63=1,ScoPo!N63,-ScoPo!O63),0)</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -16012,7 +16070,7 @@
       </c>
       <c r="C63">
         <f>IF(ScoPo!K65&gt;0,IF(ScoPo!K65=1,ScoPo!N65,-ScoPo!O65),0)</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -16026,7 +16084,7 @@
       </c>
       <c r="C64">
         <f>IF(ScoPo!K66&gt;0,IF(ScoPo!K66=1,ScoPo!N66,-ScoPo!O66),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -16082,7 +16140,7 @@
       </c>
       <c r="C68">
         <f>IF(ScoPo!K70&gt;0,IF(ScoPo!K70=1,ScoPo!N70,-ScoPo!O70),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -16116,7 +16174,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>IF(B71="","",IF(AND(ScoPo!S73&gt;0,ScoPo!S73&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S73,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S73,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Collins</v>
       </c>
       <c r="B71" t="str">
         <f>IF(AND(ScoPo!T73&gt;0,ScoPo!T73&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T73,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T73,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
@@ -16138,7 +16196,7 @@
       </c>
       <c r="C72">
         <f>IF(ScoPo!K74&gt;0,IF(ScoPo!K74=1,ScoPo!N74,-ScoPo!O74),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -16200,7 +16258,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>IF(B77="","",IF(AND(ScoPo!S79&gt;0,ScoPo!S79&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S79,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S79,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Cocciaretto</v>
       </c>
       <c r="B77" t="str">
         <f>IF(AND(ScoPo!T79&gt;0,ScoPo!T79&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T79,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T79,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
@@ -16256,11 +16314,11 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f>IF(B81="","",IF(AND(ScoPo!S83&gt;0,ScoPo!S83&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S83,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S83,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Stephens</v>
       </c>
       <c r="B81" t="str">
         <f>IF(AND(ScoPo!T83&gt;0,ScoPo!T83&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T83,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T83,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Vekic</v>
       </c>
       <c r="C81">
         <f>IF(ScoPo!K83&gt;0,IF(ScoPo!K83=1,ScoPo!N83,-ScoPo!O83),0)</f>
@@ -16270,11 +16328,11 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>IF(B82="","",IF(AND(ScoPo!S84&gt;0,ScoPo!S84&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S84,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S84,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Bouzkova</v>
       </c>
       <c r="B82" t="str">
         <f>IF(AND(ScoPo!T84&gt;0,ScoPo!T84&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T84,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T84,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Kontaveit</v>
       </c>
       <c r="C82">
         <f>IF(ScoPo!K84&gt;0,IF(ScoPo!K84=1,ScoPo!N84,-ScoPo!O84),0)</f>
@@ -16298,11 +16356,11 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>IF(B84="","",IF(AND(ScoPo!S86&gt;0,ScoPo!S86&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S86,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S86,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Jabeur</v>
       </c>
       <c r="B84" t="str">
         <f>IF(AND(ScoPo!T86&gt;0,ScoPo!T86&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T86,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T86,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Bai</v>
       </c>
       <c r="C84">
         <f>IF(ScoPo!K86&gt;0,IF(ScoPo!K86=1,ScoPo!N86,-ScoPo!O86),0)</f>
@@ -16326,11 +16384,11 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>IF(B86="","",IF(AND(ScoPo!S88&gt;0,ScoPo!S88&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S88,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S88,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Stevanovic</v>
       </c>
       <c r="B86" t="str">
         <f>IF(AND(ScoPo!T88&gt;0,ScoPo!T88&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T88,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T88,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Korpatsch</v>
       </c>
       <c r="C86">
         <f>IF(ScoPo!K88&gt;0,IF(ScoPo!K88=1,ScoPo!N88,-ScoPo!O88),0)</f>
@@ -16344,7 +16402,7 @@
       </c>
       <c r="B87" t="str">
         <f>IF(AND(ScoPo!T89&gt;0,ScoPo!T89&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T89,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T89,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Kvitova</v>
       </c>
       <c r="C87">
         <f>IF(ScoPo!K89&gt;0,IF(ScoPo!K89=1,ScoPo!N89,-ScoPo!O89),0)</f>
@@ -16354,11 +16412,11 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f>IF(B88="","",IF(AND(ScoPo!S90&gt;0,ScoPo!S90&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S90,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S90,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Haddad Maia</v>
       </c>
       <c r="B88" t="str">
         <f>IF(AND(ScoPo!T90&gt;0,ScoPo!T90&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T90,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T90,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Cristian</v>
       </c>
       <c r="C88">
         <f>IF(ScoPo!K90&gt;0,IF(ScoPo!K90=1,ScoPo!N90,-ScoPo!O90),0)</f>
@@ -16368,11 +16426,11 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f>IF(B89="","",IF(AND(ScoPo!S91&gt;0,ScoPo!S91&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S91,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S91,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Cirstea</v>
       </c>
       <c r="B89" t="str">
         <f>IF(AND(ScoPo!T91&gt;0,ScoPo!T91&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T91,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T91,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Ostapenko</v>
       </c>
       <c r="C89">
         <f>IF(ScoPo!K91&gt;0,IF(ScoPo!K91=1,ScoPo!N91,-ScoPo!O91),0)</f>
@@ -16382,11 +16440,11 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>IF(B90="","",IF(AND(ScoPo!S92&gt;0,ScoPo!S92&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S92,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S92,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Tomova</v>
       </c>
       <c r="B90" t="str">
         <f>IF(AND(ScoPo!T92&gt;0,ScoPo!T92&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T92,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T92,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Boulter</v>
       </c>
       <c r="C90">
         <f>IF(ScoPo!K92&gt;0,IF(ScoPo!K92=1,ScoPo!N92,-ScoPo!O92),0)</f>
@@ -16396,7 +16454,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>IF(B91="","",IF(AND(ScoPo!S93&gt;0,ScoPo!S93&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S93,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S93,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Cornet</v>
       </c>
       <c r="B91" t="str">
         <f>IF(AND(ScoPo!T93&gt;0,ScoPo!T93&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T93,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T93,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
@@ -16410,11 +16468,11 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>IF(B92="","",IF(AND(ScoPo!S94&gt;0,ScoPo!S94&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S94,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S94,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Kostyuk</v>
       </c>
       <c r="B92" t="str">
         <f>IF(AND(ScoPo!T94&gt;0,ScoPo!T94&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T94,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T94,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Badosa</v>
       </c>
       <c r="C92">
         <f>IF(ScoPo!K94&gt;0,IF(ScoPo!K94=1,ScoPo!N94,-ScoPo!O94),0)</f>
@@ -16428,7 +16486,7 @@
       </c>
       <c r="B93" t="str">
         <f>IF(AND(ScoPo!T95&gt;0,ScoPo!T95&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T95,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T95,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Keys</v>
       </c>
       <c r="C93">
         <f>IF(ScoPo!K95&gt;0,IF(ScoPo!K95=1,ScoPo!N95,-ScoPo!O95),0)</f>
@@ -16438,11 +16496,11 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>IF(B94="","",IF(AND(ScoPo!S96&gt;0,ScoPo!S96&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S96,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S96,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Potapova</v>
       </c>
       <c r="B94" t="str">
         <f>IF(AND(ScoPo!T96&gt;0,ScoPo!T96&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T96,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T96,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Juvan</v>
       </c>
       <c r="C94">
         <f>IF(ScoPo!K96&gt;0,IF(ScoPo!K96=1,ScoPo!N96,-ScoPo!O96),0)</f>
@@ -16452,11 +16510,11 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>IF(B95="","",IF(AND(ScoPo!S97&gt;0,ScoPo!S97&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S97,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S97,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Andreeva</v>
       </c>
       <c r="B95" t="str">
         <f>IF(AND(ScoPo!T97&gt;0,ScoPo!T97&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T97,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T97,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Krejcikova</v>
       </c>
       <c r="C95">
         <f>IF(ScoPo!K97&gt;0,IF(ScoPo!K97=1,ScoPo!N97,-ScoPo!O97),0)</f>
@@ -16480,11 +16538,11 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f>IF(B97="","",IF(AND(ScoPo!S99&gt;0,ScoPo!S99&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S99,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S99,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Brengle</v>
       </c>
       <c r="B97" t="str">
         <f>IF(AND(ScoPo!T99&gt;0,ScoPo!T99&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T99,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T99,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Alexandrova</v>
       </c>
       <c r="C97">
         <f>IF(ScoPo!K99&gt;0,IF(ScoPo!K99=1,ScoPo!N99,-ScoPo!O99),0)</f>
@@ -16498,7 +16556,7 @@
       </c>
       <c r="B98" t="str">
         <f>IF(AND(ScoPo!T100&gt;0,ScoPo!T100&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T100,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T100,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
-        <v/>
+        <v>Blinkova</v>
       </c>
       <c r="C98">
         <f>IF(ScoPo!K100&gt;0,IF(ScoPo!K100=1,ScoPo!N100,-ScoPo!O100),0)</f>
@@ -16508,7 +16566,7 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f>IF(B99="","",IF(AND(ScoPo!S101&gt;0,ScoPo!S101&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!S101,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!S101,ScoPo!$G$150:$J$277,4,0))-1),""))</f>
-        <v/>
+        <v>Gracheva</v>
       </c>
       <c r="B99" t="str">
         <f>IF(AND(ScoPo!T101&gt;0,ScoPo!T101&lt;='Results Export'!$B$1),LEFT(VLOOKUP(ScoPo!T101,ScoPo!$G$150:$J$277,4,0),FIND(",",VLOOKUP(ScoPo!T101,ScoPo!$G$150:$J$277,4,0))-1),"")</f>
